--- a/BackTest/2020-01-25 BackTest FX.xlsx
+++ b/BackTest/2020-01-25 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>87331.0175589312</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>87339.0175589312</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>96282.1895589312</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>95295.50275893121</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>95295.50275893121</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>97923.2238589312</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>92152.8194589312</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>92162.8194589312</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>92168.1652589312</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>92176.1652589312</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>92150.1061589312</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>87394.3883589312</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>83486.54465893121</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>83354.3390589312</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>83367.1680589312</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>83008.0604589312</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>83064.0672589312</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>76717.61665893121</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>76717.91665893121</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>76717.91665893121</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>76749.58145893121</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>76824.58145893121</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>76809.58145893121</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>76809.58145893121</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,19 @@
         <v>67708.4764589312</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>66.48999999999999</v>
+      </c>
+      <c r="J48" t="n">
+        <v>66.48999999999999</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2006,21 @@
         <v>62260.9197589312</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2045,23 @@
         <v>62393.7339589312</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>65.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2088,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2119,19 @@
         <v>53477.9657589312</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>65.5</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2156,23 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>65.7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2197,23 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>66.69</v>
+      </c>
+      <c r="J54" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2238,23 @@
         <v>55121.4417589312</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>66.69</v>
+      </c>
+      <c r="J55" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,24 +2279,23 @@
         <v>54868.9689589312</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="J56" t="n">
         <v>65.5</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2442,24 +2320,23 @@
         <v>55126.45490039608</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>65.17</v>
       </c>
       <c r="J57" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2484,24 +2361,23 @@
         <v>54385.72690039608</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2526,24 +2402,23 @@
         <v>54585.72690039608</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>65.19</v>
       </c>
       <c r="J59" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2568,24 +2443,23 @@
         <v>54993.72690039608</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>65.3</v>
       </c>
       <c r="J60" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2610,22 +2484,23 @@
         <v>54993.72690039608</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>66.48999999999999</v>
+      </c>
+      <c r="J61" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2650,24 +2525,23 @@
         <v>54832.72690039608</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2692,24 +2566,23 @@
         <v>54811.35790039608</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2734,24 +2607,23 @@
         <v>55441.33890039608</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2776,24 +2648,23 @@
         <v>54941.33890039608</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2818,24 +2689,23 @@
         <v>54949.33890039608</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="J66" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2860,22 +2730,23 @@
         <v>54677.33890039608</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2900,22 +2771,23 @@
         <v>55743.33890039608</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>65.3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2940,22 +2812,23 @@
         <v>55672.08560039608</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>66.48999999999999</v>
+      </c>
+      <c r="J69" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2980,22 +2853,23 @@
         <v>55672.08560039608</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>66.40000000000001</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3020,22 +2894,23 @@
         <v>55672.08560039608</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>66.40000000000001</v>
+      </c>
+      <c r="J71" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3060,22 +2935,23 @@
         <v>55681.88980039608</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>66.40000000000001</v>
+      </c>
+      <c r="J72" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3100,22 +2976,23 @@
         <v>55431.45140039608</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>66.48999999999999</v>
+      </c>
+      <c r="J73" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3140,22 +3017,23 @@
         <v>55431.45140039608</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>66.40000000000001</v>
+      </c>
+      <c r="J74" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3180,22 +3058,23 @@
         <v>55441.26920039608</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>66.40000000000001</v>
+      </c>
+      <c r="J75" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3220,22 +3099,23 @@
         <v>55441.26920039608</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3260,22 +3140,21 @@
         <v>55449.16480039608</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3300,20 +3179,23 @@
         <v>46409.18080039608</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>66.98999999999999</v>
+      </c>
+      <c r="J78" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
       </c>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3338,18 +3220,23 @@
         <v>45763.39840039608</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>65.64</v>
+      </c>
+      <c r="J79" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3374,18 +3261,23 @@
         <v>45604.43280039608</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3412,22 +3304,19 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>65.36</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3454,22 +3343,19 @@
       <c r="H82" t="n">
         <v>1</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3494,24 +3380,23 @@
         <v>39471.57100039607</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>65.3</v>
       </c>
       <c r="J83" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3536,24 +3421,23 @@
         <v>39499.57100039607</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="J84" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3578,24 +3462,23 @@
         <v>39195.44260039607</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>66.68000000000001</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3620,24 +3503,23 @@
         <v>39206.93880039607</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="J86" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3662,22 +3544,23 @@
         <v>38706.93880039607</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>66.48</v>
+      </c>
+      <c r="J87" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3702,22 +3585,21 @@
         <v>30719.80800039607</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3742,22 +3624,23 @@
         <v>22034.75810039607</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>65.2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3782,24 +3665,23 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="J90" t="n">
-        <v>65.18000000000001</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3824,24 +3706,23 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="J91" t="n">
         <v>65.5</v>
       </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3866,24 +3747,23 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="J92" t="n">
         <v>65.5</v>
       </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3908,24 +3788,23 @@
         <v>23358.72850039607</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="J93" t="n">
         <v>65.5</v>
       </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3950,24 +3829,23 @@
         <v>23405.37620039607</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>66.36</v>
       </c>
       <c r="J94" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3992,24 +3870,23 @@
         <v>23405.37620039607</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>66.37</v>
       </c>
       <c r="J95" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4034,24 +3911,23 @@
         <v>-76833.08289960392</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>66.37</v>
       </c>
       <c r="J96" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4076,22 +3952,21 @@
         <v>-76602.74319960392</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4116,22 +3991,23 @@
         <v>-76602.74319960392</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4156,24 +4032,23 @@
         <v>-79038.79019960393</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J99" t="n">
-        <v>65</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4198,24 +4073,23 @@
         <v>-78638.79019960393</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>64.89</v>
       </c>
       <c r="J100" t="n">
-        <v>64.89</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4240,24 +4114,23 @@
         <v>-78638.79019960393</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J101" t="n">
-        <v>65</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4282,24 +4155,23 @@
         <v>-78957.25119960392</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J102" t="n">
-        <v>65</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4324,24 +4196,23 @@
         <v>-74201.20359960392</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="J103" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4366,24 +4237,23 @@
         <v>-74453.80039960392</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="J104" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4408,24 +4278,23 @@
         <v>-72184.00509960392</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="J105" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4450,24 +4319,23 @@
         <v>-72184.00509960392</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>66.2</v>
       </c>
       <c r="J106" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4492,24 +4360,21 @@
         <v>-72681.72009960392</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
         <v>0</v>
       </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4534,24 +4399,21 @@
         <v>-65639.09109960392</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
         <v>0</v>
       </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>65.89</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4576,24 +4438,21 @@
         <v>-72599.30309960392</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
         <v>0</v>
       </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4618,24 +4477,21 @@
         <v>-61334.08339960391</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
         <v>0</v>
       </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4660,24 +4516,21 @@
         <v>-61326.08339960391</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
         <v>0</v>
       </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>66.09</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4702,24 +4555,21 @@
         <v>-67946.07239960392</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
         <v>0</v>
       </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4744,24 +4594,23 @@
         <v>-67938.07239960392</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="J113" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4786,24 +4635,21 @@
         <v>-76691.22939960391</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
         <v>0</v>
       </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>65.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4828,26 +4674,25 @@
         <v>-84942.03039960391</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="J115" t="n">
         <v>65.5</v>
       </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest FX.xlsx
+++ b/BackTest/2020-01-25 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>87331.0175589312</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>87339.0175589312</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>92789.0175589312</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>96282.1895589312</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>95295.50275893121</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>95295.50275893121</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>97923.2238589312</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>92152.8194589312</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>92162.8194589312</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>92168.1652589312</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>92176.1652589312</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>92150.1061589312</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>87394.3883589312</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>83486.54465893121</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>83354.3390589312</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>83367.1680589312</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>83008.0604589312</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>83064.0672589312</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>76717.61665893121</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>76717.91665893121</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>76717.91665893121</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>76749.58145893121</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>76824.58145893121</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>76809.58145893121</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>76809.58145893121</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1969,14 +1969,10 @@
         <v>67708.4764589312</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="J48" t="n">
-        <v>66.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2006,17 +2002,11 @@
         <v>62260.9197589312</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2045,19 +2035,11 @@
         <v>62393.7339589312</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2119,14 +2101,10 @@
         <v>53477.9657589312</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>65.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
@@ -2156,2141 +2134,1747 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>65.22</v>
+      </c>
+      <c r="C54" t="n">
+        <v>66.69</v>
+      </c>
+      <c r="D54" t="n">
+        <v>66.69</v>
+      </c>
+      <c r="E54" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20</v>
+      </c>
+      <c r="G54" t="n">
+        <v>55168.9657589312</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>66</v>
+      </c>
+      <c r="C55" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>66</v>
+      </c>
+      <c r="E55" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>47.524</v>
+      </c>
+      <c r="G55" t="n">
+        <v>55121.4417589312</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="D56" t="n">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="E56" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="F56" t="n">
+        <v>252.4728</v>
+      </c>
+      <c r="G56" t="n">
+        <v>54868.9689589312</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="C57" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>65.16</v>
+      </c>
+      <c r="F57" t="n">
+        <v>257.4859414648819</v>
+      </c>
+      <c r="G57" t="n">
+        <v>55126.45490039608</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="C58" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="D58" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="E58" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="F58" t="n">
+        <v>740.728</v>
+      </c>
+      <c r="G58" t="n">
+        <v>54385.72690039608</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>200</v>
+      </c>
+      <c r="G59" t="n">
+        <v>54585.72690039608</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>408</v>
+      </c>
+      <c r="G60" t="n">
+        <v>54993.72690039608</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>66</v>
+      </c>
+      <c r="C61" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="D61" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="E61" t="n">
+        <v>66</v>
+      </c>
+      <c r="F61" t="n">
+        <v>114.7393</v>
+      </c>
+      <c r="G61" t="n">
+        <v>54993.72690039608</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>161</v>
+      </c>
+      <c r="G62" t="n">
+        <v>54832.72690039608</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>21.369</v>
+      </c>
+      <c r="G63" t="n">
+        <v>54811.35790039608</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="C64" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E64" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="F64" t="n">
+        <v>629.981</v>
+      </c>
+      <c r="G64" t="n">
+        <v>55441.33890039608</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>500</v>
+      </c>
+      <c r="G65" t="n">
+        <v>54941.33890039608</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E66" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="n">
+        <v>54949.33890039608</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>272</v>
+      </c>
+      <c r="G67" t="n">
+        <v>54677.33890039608</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="E68" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G68" t="n">
+        <v>55743.33890039608</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C69" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E69" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="F69" t="n">
+        <v>71.2533</v>
+      </c>
+      <c r="G69" t="n">
+        <v>55672.08560039608</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C70" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E70" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="F70" t="n">
+        <v>50</v>
+      </c>
+      <c r="G70" t="n">
+        <v>55672.08560039608</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C71" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E71" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="F71" t="n">
+        <v>378.7467</v>
+      </c>
+      <c r="G71" t="n">
+        <v>55672.08560039608</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="D72" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.8042</v>
+      </c>
+      <c r="G72" t="n">
+        <v>55681.88980039608</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C73" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E73" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="F73" t="n">
+        <v>250.4384</v>
+      </c>
+      <c r="G73" t="n">
+        <v>55431.45140039608</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D74" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E74" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12606.7991</v>
+      </c>
+      <c r="G74" t="n">
+        <v>55431.45140039608</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9.8178</v>
+      </c>
+      <c r="G75" t="n">
+        <v>55441.26920039608</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>653.5617999999999</v>
+      </c>
+      <c r="G76" t="n">
+        <v>55441.26920039608</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="C77" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="E77" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7.8956</v>
+      </c>
+      <c r="G77" t="n">
+        <v>55449.16480039608</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>65.64</v>
+      </c>
+      <c r="C78" t="n">
+        <v>65.64</v>
+      </c>
+      <c r="D78" t="n">
+        <v>65.64</v>
+      </c>
+      <c r="E78" t="n">
+        <v>65.64</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9039.984</v>
+      </c>
+      <c r="G78" t="n">
+        <v>46409.18080039608</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="C79" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="E79" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>645.7824000000001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>45763.39840039608</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>65.36</v>
+      </c>
+      <c r="C80" t="n">
+        <v>65.36</v>
+      </c>
+      <c r="D80" t="n">
+        <v>65.36</v>
+      </c>
+      <c r="E80" t="n">
+        <v>65.36</v>
+      </c>
+      <c r="F80" t="n">
+        <v>158.9656</v>
+      </c>
+      <c r="G80" t="n">
+        <v>45604.43280039608</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="D81" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8221.258099999999</v>
+      </c>
+      <c r="G81" t="n">
+        <v>37383.17470039608</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2225.1718</v>
+      </c>
+      <c r="G82" t="n">
+        <v>39608.34650039607</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="C83" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="E83" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>136.7755</v>
+      </c>
+      <c r="G83" t="n">
+        <v>39471.57100039607</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="C84" t="n">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="E84" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="F84" t="n">
+        <v>28</v>
+      </c>
+      <c r="G84" t="n">
+        <v>39499.57100039607</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="C85" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E85" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="F85" t="n">
+        <v>304.1284</v>
+      </c>
+      <c r="G85" t="n">
+        <v>39195.44260039607</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="C86" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="D86" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="E86" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11.4962</v>
+      </c>
+      <c r="G86" t="n">
+        <v>39206.93880039607</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="C87" t="n">
         <v>65.7</v>
       </c>
-      <c r="J53" t="n">
+      <c r="D87" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>500</v>
+      </c>
+      <c r="G87" t="n">
+        <v>38706.93880039607</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>65.22</v>
+      </c>
+      <c r="C88" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>65.22</v>
+      </c>
+      <c r="E88" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7987.1308</v>
+      </c>
+      <c r="G88" t="n">
+        <v>30719.80800039607</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="C89" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="E89" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8685.0499</v>
+      </c>
+      <c r="G89" t="n">
+        <v>22034.75810039607</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
         <v>65.5</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="C90" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1164</v>
+      </c>
+      <c r="G90" t="n">
+        <v>23198.75810039607</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>399</v>
+      </c>
+      <c r="G91" t="n">
+        <v>23198.75810039607</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>868</v>
+      </c>
+      <c r="G92" t="n">
+        <v>23198.75810039607</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="C93" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="D93" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="E93" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="F93" t="n">
+        <v>159.9704</v>
+      </c>
+      <c r="G93" t="n">
+        <v>23358.72850039607</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C94" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D94" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E94" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F94" t="n">
+        <v>46.6477</v>
+      </c>
+      <c r="G94" t="n">
+        <v>23405.37620039607</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C95" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D95" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E95" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F95" t="n">
+        <v>13.7484</v>
+      </c>
+      <c r="G95" t="n">
+        <v>23405.37620039607</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="C96" t="n">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="D96" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="E96" t="n">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="F96" t="n">
+        <v>100238.4591</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-76833.08289960392</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>65</v>
+      </c>
+      <c r="C97" t="n">
+        <v>65</v>
+      </c>
+      <c r="D97" t="n">
+        <v>65</v>
+      </c>
+      <c r="E97" t="n">
+        <v>65</v>
+      </c>
+      <c r="F97" t="n">
+        <v>230.3397</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-76602.74319960392</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>65</v>
+      </c>
+      <c r="C98" t="n">
+        <v>65</v>
+      </c>
+      <c r="D98" t="n">
+        <v>65</v>
+      </c>
+      <c r="E98" t="n">
+        <v>65</v>
+      </c>
+      <c r="F98" t="n">
+        <v>909.7015</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-76602.74319960392</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>65</v>
+      </c>
+      <c r="C99" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="D99" t="n">
+        <v>65</v>
+      </c>
+      <c r="E99" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2436.047</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-79038.79019960393</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>65</v>
+      </c>
+      <c r="C100" t="n">
+        <v>65</v>
+      </c>
+      <c r="D100" t="n">
+        <v>65</v>
+      </c>
+      <c r="E100" t="n">
+        <v>65</v>
+      </c>
+      <c r="F100" t="n">
+        <v>400</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-78638.79019960393</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>65</v>
+      </c>
+      <c r="C101" t="n">
+        <v>65</v>
+      </c>
+      <c r="D101" t="n">
+        <v>65</v>
+      </c>
+      <c r="E101" t="n">
+        <v>65</v>
+      </c>
+      <c r="F101" t="n">
+        <v>15333.9272</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-78638.79019960393</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>64.79000000000001</v>
+      </c>
+      <c r="C102" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D102" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="E102" t="n">
+        <v>64.79000000000001</v>
+      </c>
+      <c r="F102" t="n">
+        <v>318.461</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-78957.25119960392</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>65.98</v>
+      </c>
+      <c r="C103" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="D103" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="E103" t="n">
+        <v>65.98</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4756.0476</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-74201.20359960392</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="J103" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="C104" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D104" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="E104" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="F104" t="n">
+        <v>252.5968</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-74453.80039960392</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="J104" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2269.7953</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-72184.00509960392</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="J105" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>65.22</v>
-      </c>
-      <c r="C54" t="n">
-        <v>66.69</v>
-      </c>
-      <c r="D54" t="n">
-        <v>66.69</v>
-      </c>
-      <c r="E54" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="F54" t="n">
-        <v>20</v>
-      </c>
-      <c r="G54" t="n">
-        <v>55168.9657589312</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>66.69</v>
-      </c>
-      <c r="J54" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>66</v>
-      </c>
-      <c r="C55" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>66</v>
-      </c>
-      <c r="E55" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="F55" t="n">
-        <v>47.524</v>
-      </c>
-      <c r="G55" t="n">
-        <v>55121.4417589312</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>66.69</v>
-      </c>
-      <c r="J55" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>65.34999999999999</v>
-      </c>
-      <c r="C56" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="D56" t="n">
-        <v>65.34999999999999</v>
-      </c>
-      <c r="E56" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="F56" t="n">
-        <v>252.4728</v>
-      </c>
-      <c r="G56" t="n">
-        <v>54868.9689589312</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="C57" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="D57" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="E57" t="n">
-        <v>65.16</v>
-      </c>
-      <c r="F57" t="n">
-        <v>257.4859414648819</v>
-      </c>
-      <c r="G57" t="n">
-        <v>55126.45490039608</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="J57" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="C58" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="D58" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="E58" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="F58" t="n">
-        <v>740.728</v>
-      </c>
-      <c r="G58" t="n">
-        <v>54385.72690039608</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="J58" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="D59" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="E59" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="F59" t="n">
-        <v>200</v>
-      </c>
-      <c r="G59" t="n">
-        <v>54585.72690039608</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="C60" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="D60" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="E60" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="F60" t="n">
-        <v>408</v>
-      </c>
-      <c r="G60" t="n">
-        <v>54993.72690039608</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>66</v>
-      </c>
-      <c r="C61" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="D61" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="E61" t="n">
-        <v>66</v>
-      </c>
-      <c r="F61" t="n">
-        <v>114.7393</v>
-      </c>
-      <c r="G61" t="n">
-        <v>54993.72690039608</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="J61" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="C62" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="D62" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="E62" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="F62" t="n">
-        <v>161</v>
-      </c>
-      <c r="G62" t="n">
-        <v>54832.72690039608</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="J62" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="C63" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="D63" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="E63" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="F63" t="n">
-        <v>21.369</v>
-      </c>
-      <c r="G63" t="n">
-        <v>54811.35790039608</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="J63" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="C64" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="D64" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="E64" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="F64" t="n">
-        <v>629.981</v>
-      </c>
-      <c r="G64" t="n">
-        <v>55441.33890039608</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="J64" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="D65" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="E65" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="F65" t="n">
-        <v>500</v>
-      </c>
-      <c r="G65" t="n">
-        <v>54941.33890039608</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="J65" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C66" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="D66" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E66" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F66" t="n">
-        <v>8</v>
-      </c>
-      <c r="G66" t="n">
-        <v>54949.33890039608</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C67" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="D67" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="E67" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="F67" t="n">
-        <v>272</v>
-      </c>
-      <c r="G67" t="n">
-        <v>54677.33890039608</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="D68" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="E68" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1066</v>
-      </c>
-      <c r="G68" t="n">
-        <v>55743.33890039608</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="C69" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="D69" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="E69" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="F69" t="n">
-        <v>71.2533</v>
-      </c>
-      <c r="G69" t="n">
-        <v>55672.08560039608</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="C70" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="D70" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="E70" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="F70" t="n">
-        <v>50</v>
-      </c>
-      <c r="G70" t="n">
-        <v>55672.08560039608</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="J70" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="C71" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="D71" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="E71" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="F71" t="n">
-        <v>378.7467</v>
-      </c>
-      <c r="G71" t="n">
-        <v>55672.08560039608</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="J71" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="C72" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="D72" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="E72" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="F72" t="n">
-        <v>9.8042</v>
-      </c>
-      <c r="G72" t="n">
-        <v>55681.88980039608</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="J72" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="C73" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="D73" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="E73" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="F73" t="n">
-        <v>250.4384</v>
-      </c>
-      <c r="G73" t="n">
-        <v>55431.45140039608</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="J73" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="C74" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="D74" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="E74" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="F74" t="n">
-        <v>12606.7991</v>
-      </c>
-      <c r="G74" t="n">
-        <v>55431.45140039608</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="J74" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C75" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D75" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E75" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F75" t="n">
-        <v>9.8178</v>
-      </c>
-      <c r="G75" t="n">
-        <v>55441.26920039608</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="J75" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C76" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D76" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E76" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F76" t="n">
-        <v>653.5617999999999</v>
-      </c>
-      <c r="G76" t="n">
-        <v>55441.26920039608</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="C77" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="D77" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="E77" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7.8956</v>
-      </c>
-      <c r="G77" t="n">
-        <v>55449.16480039608</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>65.64</v>
-      </c>
-      <c r="C78" t="n">
-        <v>65.64</v>
-      </c>
-      <c r="D78" t="n">
-        <v>65.64</v>
-      </c>
-      <c r="E78" t="n">
-        <v>65.64</v>
-      </c>
-      <c r="F78" t="n">
-        <v>9039.984</v>
-      </c>
-      <c r="G78" t="n">
-        <v>46409.18080039608</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="J78" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>66.84</v>
-      </c>
-      <c r="C79" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="D79" t="n">
-        <v>66.84</v>
-      </c>
-      <c r="E79" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="F79" t="n">
-        <v>645.7824000000001</v>
-      </c>
-      <c r="G79" t="n">
-        <v>45763.39840039608</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>65.64</v>
-      </c>
-      <c r="J79" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>65.36</v>
-      </c>
-      <c r="C80" t="n">
-        <v>65.36</v>
-      </c>
-      <c r="D80" t="n">
-        <v>65.36</v>
-      </c>
-      <c r="E80" t="n">
-        <v>65.36</v>
-      </c>
-      <c r="F80" t="n">
-        <v>158.9656</v>
-      </c>
-      <c r="G80" t="n">
-        <v>45604.43280039608</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C81" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="D81" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="E81" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="F81" t="n">
-        <v>8221.258099999999</v>
-      </c>
-      <c r="G81" t="n">
-        <v>37383.17470039608</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C82" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="D82" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="E82" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2225.1718</v>
-      </c>
-      <c r="G82" t="n">
-        <v>39608.34650039607</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>66.84999999999999</v>
-      </c>
-      <c r="C83" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="D83" t="n">
-        <v>66.84999999999999</v>
-      </c>
-      <c r="E83" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="F83" t="n">
-        <v>136.7755</v>
-      </c>
-      <c r="G83" t="n">
-        <v>39471.57100039607</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="C84" t="n">
-        <v>66.68000000000001</v>
-      </c>
-      <c r="D84" t="n">
-        <v>66.68000000000001</v>
-      </c>
-      <c r="E84" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="F84" t="n">
-        <v>28</v>
-      </c>
-      <c r="G84" t="n">
-        <v>39499.57100039607</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>65.39</v>
-      </c>
-      <c r="C85" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="D85" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="E85" t="n">
-        <v>65.39</v>
-      </c>
-      <c r="F85" t="n">
-        <v>304.1284</v>
-      </c>
-      <c r="G85" t="n">
-        <v>39195.44260039607</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>66.68000000000001</v>
-      </c>
-      <c r="J85" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="C86" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="D86" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="E86" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="F86" t="n">
-        <v>11.4962</v>
-      </c>
-      <c r="G86" t="n">
-        <v>39206.93880039607</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="J86" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>65.70999999999999</v>
-      </c>
-      <c r="C87" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>65.70999999999999</v>
-      </c>
-      <c r="E87" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="F87" t="n">
-        <v>500</v>
-      </c>
-      <c r="G87" t="n">
-        <v>38706.93880039607</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="J87" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>65.22</v>
-      </c>
-      <c r="C88" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="D88" t="n">
-        <v>65.22</v>
-      </c>
-      <c r="E88" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="F88" t="n">
-        <v>7987.1308</v>
-      </c>
-      <c r="G88" t="n">
-        <v>30719.80800039607</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="C89" t="n">
-        <v>65.18000000000001</v>
-      </c>
-      <c r="D89" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="E89" t="n">
-        <v>65.18000000000001</v>
-      </c>
-      <c r="F89" t="n">
-        <v>8685.0499</v>
-      </c>
-      <c r="G89" t="n">
-        <v>22034.75810039607</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="C90" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="D90" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1164</v>
-      </c>
-      <c r="G90" t="n">
-        <v>23198.75810039607</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>65.18000000000001</v>
-      </c>
-      <c r="J90" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="C91" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="D91" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="E91" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="F91" t="n">
-        <v>399</v>
-      </c>
-      <c r="G91" t="n">
-        <v>23198.75810039607</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="C92" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="D92" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="E92" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="F92" t="n">
-        <v>868</v>
-      </c>
-      <c r="G92" t="n">
-        <v>23198.75810039607</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="C93" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="D93" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="E93" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="F93" t="n">
-        <v>159.9704</v>
-      </c>
-      <c r="G93" t="n">
-        <v>23358.72850039607</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="C94" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="D94" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="E94" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="F94" t="n">
-        <v>46.6477</v>
-      </c>
-      <c r="G94" t="n">
-        <v>23405.37620039607</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="J94" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="C95" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="D95" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="E95" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="F95" t="n">
-        <v>13.7484</v>
-      </c>
-      <c r="G95" t="n">
-        <v>23405.37620039607</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="J95" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="C96" t="n">
-        <v>64.98999999999999</v>
-      </c>
-      <c r="D96" t="n">
-        <v>66.36</v>
-      </c>
-      <c r="E96" t="n">
-        <v>64.98999999999999</v>
-      </c>
-      <c r="F96" t="n">
-        <v>100238.4591</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-76833.08289960392</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="J96" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>65</v>
-      </c>
-      <c r="C97" t="n">
-        <v>65</v>
-      </c>
-      <c r="D97" t="n">
-        <v>65</v>
-      </c>
-      <c r="E97" t="n">
-        <v>65</v>
-      </c>
-      <c r="F97" t="n">
-        <v>230.3397</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-76602.74319960392</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>65</v>
-      </c>
-      <c r="C98" t="n">
-        <v>65</v>
-      </c>
-      <c r="D98" t="n">
-        <v>65</v>
-      </c>
-      <c r="E98" t="n">
-        <v>65</v>
-      </c>
-      <c r="F98" t="n">
-        <v>909.7015</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-76602.74319960392</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>65</v>
-      </c>
-      <c r="C99" t="n">
-        <v>64.89</v>
-      </c>
-      <c r="D99" t="n">
-        <v>65</v>
-      </c>
-      <c r="E99" t="n">
-        <v>64.89</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2436.047</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-79038.79019960393</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>65</v>
-      </c>
-      <c r="J99" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>65</v>
-      </c>
-      <c r="C100" t="n">
-        <v>65</v>
-      </c>
-      <c r="D100" t="n">
-        <v>65</v>
-      </c>
-      <c r="E100" t="n">
-        <v>65</v>
-      </c>
-      <c r="F100" t="n">
-        <v>400</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-78638.79019960393</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>64.89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>65</v>
-      </c>
-      <c r="C101" t="n">
-        <v>65</v>
-      </c>
-      <c r="D101" t="n">
-        <v>65</v>
-      </c>
-      <c r="E101" t="n">
-        <v>65</v>
-      </c>
-      <c r="F101" t="n">
-        <v>15333.9272</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-78638.79019960393</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>65</v>
-      </c>
-      <c r="J101" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>64.79000000000001</v>
-      </c>
-      <c r="C102" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D102" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="E102" t="n">
-        <v>64.79000000000001</v>
-      </c>
-      <c r="F102" t="n">
-        <v>318.461</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-78957.25119960392</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>65</v>
-      </c>
-      <c r="J102" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>65.98</v>
-      </c>
-      <c r="C103" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="D103" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="E103" t="n">
-        <v>65.98</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4756.0476</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-74201.20359960392</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="J103" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="C104" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D104" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="E104" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="F104" t="n">
-        <v>252.5968</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-74453.80039960392</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="J104" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="C105" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E105" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2269.7953</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-72184.00509960392</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="J105" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4319,13 +3903,13 @@
         <v>-72184.00509960392</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>66.2</v>
       </c>
       <c r="J106" t="n">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4360,11 +3944,13 @@
         <v>-72681.72009960392</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>66.2</v>
+      </c>
       <c r="J107" t="n">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4399,11 +3985,13 @@
         <v>-65639.09109960392</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>65.89</v>
+      </c>
       <c r="J108" t="n">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4438,11 +4026,13 @@
         <v>-72599.30309960392</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>66.3</v>
+      </c>
       <c r="J109" t="n">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4477,11 +4067,13 @@
         <v>-61334.08339960391</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>64.3</v>
+      </c>
       <c r="J110" t="n">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4520,7 +4112,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4555,11 +4147,13 @@
         <v>-67946.07239960392</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>66.3</v>
+      </c>
       <c r="J112" t="n">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4594,13 +4188,13 @@
         <v>-67938.07239960392</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>66.29000000000001</v>
       </c>
       <c r="J113" t="n">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4635,11 +4229,13 @@
         <v>-76691.22939960391</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>66.3</v>
+      </c>
       <c r="J114" t="n">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4674,13 +4270,13 @@
         <v>-84942.03039960391</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>65.5</v>
       </c>
       <c r="J115" t="n">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4693,6 +4289,6 @@
       <c r="M115" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest FX.xlsx
+++ b/BackTest/2020-01-25 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>87331.0175589312</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>87339.0175589312</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>92789.0175589312</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>67708.4764589312</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>62260.9197589312</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>62393.7339589312</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>50974.92785893119</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>53477.9657589312</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>55121.4417589312</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>54868.9689589312</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>55126.45490039608</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>54385.72690039608</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,10 +2365,14 @@
         <v>54993.72690039608</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>65.3</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2401,8 +2405,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2441,17 @@
         <v>54832.72690039608</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,7 +2480,7 @@
         <v>54811.35790039608</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2563,10 +2579,14 @@
         <v>54949.33890039608</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>65.2</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2599,8 +2619,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2658,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2695,7 +2727,7 @@
         <v>55672.08560039608</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2760,7 @@
         <v>55672.08560039608</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2793,7 @@
         <v>55681.88980039608</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2826,7 @@
         <v>55431.45140039608</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2859,7 @@
         <v>55431.45140039608</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2892,7 @@
         <v>55441.26920039608</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2925,7 @@
         <v>55441.26920039608</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2958,7 @@
         <v>55449.16480039608</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2991,7 @@
         <v>46409.18080039608</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3024,7 @@
         <v>45763.39840039608</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3124,11 +3156,17 @@
         <v>39471.57100039607</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>65.3</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3199,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3232,15 @@
         <v>39195.44260039607</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3269,17 @@
         <v>39206.93880039607</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>65.40000000000001</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3308,15 @@
         <v>38706.93880039607</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3345,15 @@
         <v>30719.80800039607</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3382,15 @@
         <v>22034.75810039607</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3423,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3456,17 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>65.5</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3495,17 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>65.5</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3538,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,14 +3571,16 @@
         <v>23405.37620039607</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3520,7 +3606,7 @@
         <v>23405.37620039607</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3639,7 @@
         <v>-76833.08289960392</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3672,7 @@
         <v>-76602.74319960392</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3705,7 @@
         <v>-76602.74319960392</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,11 +3738,17 @@
         <v>-79038.79019960393</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>65</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3777,17 @@
         <v>-78638.79019960393</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>64.89</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3816,17 @@
         <v>-78638.79019960393</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>65</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3855,17 @@
         <v>-78957.25119960392</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>65</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3789,10 +3899,12 @@
       <c r="I103" t="n">
         <v>64.90000000000001</v>
       </c>
-      <c r="J103" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,17 +3933,13 @@
         <v>-74453.80039960392</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="J104" t="n">
-        <v>64.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3867,12 +3975,10 @@
       <c r="I105" t="n">
         <v>64.90000000000001</v>
       </c>
-      <c r="J105" t="n">
-        <v>64.90000000000001</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -3908,9 +4014,7 @@
       <c r="I106" t="n">
         <v>66.2</v>
       </c>
-      <c r="J106" t="n">
-        <v>64.90000000000001</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,14 +4048,10 @@
         <v>-72681.72009960392</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>64.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3985,14 +4085,10 @@
         <v>-65639.09109960392</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>65.89</v>
-      </c>
-      <c r="J108" t="n">
-        <v>64.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,14 +4122,10 @@
         <v>-72599.30309960392</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J109" t="n">
-        <v>64.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4072,9 +4164,7 @@
       <c r="I110" t="n">
         <v>64.3</v>
       </c>
-      <c r="J110" t="n">
-        <v>64.90000000000001</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,9 +4201,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>64.90000000000001</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4147,14 +4235,10 @@
         <v>-67946.07239960392</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>64.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,14 +4272,10 @@
         <v>-67938.07239960392</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="J113" t="n">
-        <v>64.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,22 +4309,16 @@
         <v>-76691.22939960391</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>64.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4270,25 +4344,17 @@
         <v>-84942.03039960391</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="J115" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
       <c r="M115" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest FX.xlsx
+++ b/BackTest/2020-01-25 BackTest FX.xlsx
@@ -484,7 +484,7 @@
         <v>87339.0175589312</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>83354.3390589312</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>83367.1680589312</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>83008.0604589312</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>83064.0672589312</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>76717.61665893121</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>76725.61665893121</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>76717.91665893121</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>76749.58145893121</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>67708.4764589312</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>62260.9197589312</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>62393.7339589312</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>50974.92785893119</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>53477.9657589312</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>55121.4417589312</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>54868.9689589312</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>55126.45490039608</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>54385.72690039608</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,14 +2365,10 @@
         <v>54993.72690039608</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>65.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2405,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2441,17 +2431,11 @@
         <v>54832.72690039608</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2480,7 +2464,7 @@
         <v>54811.35790039608</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2579,14 +2563,10 @@
         <v>54949.33890039608</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>65.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2616,17 +2596,11 @@
         <v>54677.33890039608</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2658,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2694,7 +2662,7 @@
         <v>55672.08560039608</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3057,7 +3025,7 @@
         <v>45604.43280039608</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3156,17 +3124,11 @@
         <v>39471.57100039607</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>65.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3199,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3232,15 +3190,11 @@
         <v>39195.44260039607</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3269,17 +3223,11 @@
         <v>39206.93880039607</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>65.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3308,15 +3256,11 @@
         <v>38706.93880039607</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3345,15 +3289,11 @@
         <v>30719.80800039607</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3382,15 +3322,11 @@
         <v>22034.75810039607</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3423,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3456,17 +3388,11 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>65.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3495,17 +3421,11 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>65.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3538,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3571,16 +3487,14 @@
         <v>23405.37620039607</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3606,7 +3520,7 @@
         <v>23405.37620039607</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3639,7 +3553,7 @@
         <v>-76833.08289960392</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3672,7 +3586,7 @@
         <v>-76602.74319960392</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3705,7 +3619,7 @@
         <v>-76602.74319960392</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3738,17 +3652,11 @@
         <v>-79038.79019960393</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3777,17 +3685,11 @@
         <v>-78638.79019960393</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>64.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3816,17 +3718,11 @@
         <v>-78638.79019960393</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3863,7 +3759,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3933,9 +3829,11 @@
         <v>-74453.80039960392</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>66.29000000000001</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4048,9 +3946,11 @@
         <v>-72681.72009960392</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>66.2</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4085,9 +3985,11 @@
         <v>-65639.09109960392</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>65.89</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4122,9 +4024,11 @@
         <v>-72599.30309960392</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>66.3</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4198,9 +4102,11 @@
         <v>-61326.08339960391</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>66.09</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4235,9 +4141,11 @@
         <v>-67946.07239960392</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>66.3</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4272,9 +4180,11 @@
         <v>-67938.07239960392</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>66.29000000000001</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4309,16 +4219,20 @@
         <v>-76691.22939960391</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>66.3</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4344,11 +4258,17 @@
         <v>-84942.03039960391</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>65.5</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-25 BackTest FX.xlsx
+++ b/BackTest/2020-01-25 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2071.9506</v>
       </c>
       <c r="G2" t="n">
-        <v>87331.0175589312</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>87339.0175589312</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>5450</v>
       </c>
       <c r="G4" t="n">
-        <v>92789.0175589312</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1406.828</v>
       </c>
       <c r="G5" t="n">
-        <v>91382.1895589312</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4900</v>
       </c>
       <c r="G6" t="n">
-        <v>96282.1895589312</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1368.8578</v>
       </c>
       <c r="G7" t="n">
-        <v>97651.0473589312</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>97659.0473589312</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2363.5446</v>
       </c>
       <c r="G9" t="n">
-        <v>95295.50275893121</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3208.6392</v>
       </c>
       <c r="G10" t="n">
-        <v>95295.50275893121</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>461.9997</v>
       </c>
       <c r="G11" t="n">
-        <v>95295.50275893121</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>57.8639</v>
       </c>
       <c r="G12" t="n">
-        <v>95295.50275893121</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,21 @@
         <v>2627.7211</v>
       </c>
       <c r="G13" t="n">
-        <v>97923.2238589312</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +809,19 @@
         <v>759.8774</v>
       </c>
       <c r="G14" t="n">
-        <v>97163.34645893121</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +843,21 @@
         <v>655</v>
       </c>
       <c r="G15" t="n">
-        <v>97818.34645893121</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +879,21 @@
         <v>5665.527</v>
       </c>
       <c r="G16" t="n">
-        <v>92152.8194589312</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.8</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +915,21 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>92162.8194589312</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>65.11</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +951,21 @@
         <v>151.6542</v>
       </c>
       <c r="G18" t="n">
-        <v>92162.8194589312</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>66.09</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +987,21 @@
         <v>5.3458</v>
       </c>
       <c r="G19" t="n">
-        <v>92168.1652589312</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>66.09</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1023,21 @@
         <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>92176.1652589312</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1059,19 @@
         <v>1043.2586</v>
       </c>
       <c r="G21" t="n">
-        <v>91132.9066589312</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1093,19 @@
         <v>1017.1995</v>
       </c>
       <c r="G22" t="n">
-        <v>92150.1061589312</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1127,19 @@
         <v>240</v>
       </c>
       <c r="G23" t="n">
-        <v>92390.1061589312</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1161,19 @@
         <v>4995.7178</v>
       </c>
       <c r="G24" t="n">
-        <v>87394.3883589312</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1195,19 @@
         <v>14042.189</v>
       </c>
       <c r="G25" t="n">
-        <v>73352.1993589312</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1229,19 @@
         <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>73360.1993589312</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1263,19 @@
         <v>550</v>
       </c>
       <c r="G27" t="n">
-        <v>73360.1993589312</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1297,19 @@
         <v>406</v>
       </c>
       <c r="G28" t="n">
-        <v>73360.1993589312</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1331,19 @@
         <v>25.3534</v>
       </c>
       <c r="G29" t="n">
-        <v>73385.55275893121</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1365,19 @@
         <v>651.2003999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>72734.35235893121</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1399,19 @@
         <v>5354.5147</v>
       </c>
       <c r="G31" t="n">
-        <v>78088.86705893121</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1433,21 @@
         <v>5397.6776</v>
       </c>
       <c r="G32" t="n">
-        <v>83486.54465893121</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1469,19 @@
         <v>13.7944</v>
       </c>
       <c r="G33" t="n">
-        <v>83500.3390589312</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1503,17 @@
         <v>146</v>
       </c>
       <c r="G34" t="n">
-        <v>83354.3390589312</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1535,15 @@
         <v>12.829</v>
       </c>
       <c r="G35" t="n">
-        <v>83367.1680589312</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1565,15 @@
         <v>359.1076</v>
       </c>
       <c r="G36" t="n">
-        <v>83008.0604589312</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1595,15 @@
         <v>56.0068</v>
       </c>
       <c r="G37" t="n">
-        <v>83064.0672589312</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1625,15 @@
         <v>6346.4506</v>
       </c>
       <c r="G38" t="n">
-        <v>76717.61665893121</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1655,15 @@
         <v>8</v>
       </c>
       <c r="G39" t="n">
-        <v>76725.61665893121</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1685,15 @@
         <v>7.7</v>
       </c>
       <c r="G40" t="n">
-        <v>76717.91665893121</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1715,15 @@
         <v>12.58</v>
       </c>
       <c r="G41" t="n">
-        <v>76717.91665893121</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1745,15 @@
         <v>31.6648</v>
       </c>
       <c r="G42" t="n">
-        <v>76749.58145893121</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1775,15 @@
         <v>75</v>
       </c>
       <c r="G43" t="n">
-        <v>76824.58145893121</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1805,15 @@
         <v>15</v>
       </c>
       <c r="G44" t="n">
-        <v>76809.58145893121</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1835,15 @@
         <v>129.611</v>
       </c>
       <c r="G45" t="n">
-        <v>76809.58145893121</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1865,15 @@
         <v>65</v>
       </c>
       <c r="G46" t="n">
-        <v>76874.58145893121</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1895,15 @@
         <v>44.31</v>
       </c>
       <c r="G47" t="n">
-        <v>76918.8914589312</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1925,15 @@
         <v>9210.415000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>67708.4764589312</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1955,15 @@
         <v>5447.5567</v>
       </c>
       <c r="G49" t="n">
-        <v>62260.9197589312</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1985,15 @@
         <v>132.8142</v>
       </c>
       <c r="G50" t="n">
-        <v>62393.7339589312</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2015,15 @@
         <v>11418.8061</v>
       </c>
       <c r="G51" t="n">
-        <v>50974.92785893119</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2045,15 @@
         <v>2503.0379</v>
       </c>
       <c r="G52" t="n">
-        <v>53477.9657589312</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2075,15 @@
         <v>1691</v>
       </c>
       <c r="G53" t="n">
-        <v>55168.9657589312</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2105,15 @@
         <v>20</v>
       </c>
       <c r="G54" t="n">
-        <v>55168.9657589312</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2135,15 @@
         <v>47.524</v>
       </c>
       <c r="G55" t="n">
-        <v>55121.4417589312</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2165,15 @@
         <v>252.4728</v>
       </c>
       <c r="G56" t="n">
-        <v>54868.9689589312</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2195,15 @@
         <v>257.4859414648819</v>
       </c>
       <c r="G57" t="n">
-        <v>55126.45490039608</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2225,15 @@
         <v>740.728</v>
       </c>
       <c r="G58" t="n">
-        <v>54385.72690039608</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2255,15 @@
         <v>200</v>
       </c>
       <c r="G59" t="n">
-        <v>54585.72690039608</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2285,15 @@
         <v>408</v>
       </c>
       <c r="G60" t="n">
-        <v>54993.72690039608</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2315,15 @@
         <v>114.7393</v>
       </c>
       <c r="G61" t="n">
-        <v>54993.72690039608</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2345,15 @@
         <v>161</v>
       </c>
       <c r="G62" t="n">
-        <v>54832.72690039608</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2375,15 @@
         <v>21.369</v>
       </c>
       <c r="G63" t="n">
-        <v>54811.35790039608</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2405,15 @@
         <v>629.981</v>
       </c>
       <c r="G64" t="n">
-        <v>55441.33890039608</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2435,15 @@
         <v>500</v>
       </c>
       <c r="G65" t="n">
-        <v>54941.33890039608</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2465,15 @@
         <v>8</v>
       </c>
       <c r="G66" t="n">
-        <v>54949.33890039608</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2495,15 @@
         <v>272</v>
       </c>
       <c r="G67" t="n">
-        <v>54677.33890039608</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2525,15 @@
         <v>1066</v>
       </c>
       <c r="G68" t="n">
-        <v>55743.33890039608</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2555,15 @@
         <v>71.2533</v>
       </c>
       <c r="G69" t="n">
-        <v>55672.08560039608</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2585,15 @@
         <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>55672.08560039608</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2615,15 @@
         <v>378.7467</v>
       </c>
       <c r="G71" t="n">
-        <v>55672.08560039608</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2645,15 @@
         <v>9.8042</v>
       </c>
       <c r="G72" t="n">
-        <v>55681.88980039608</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2675,15 @@
         <v>250.4384</v>
       </c>
       <c r="G73" t="n">
-        <v>55431.45140039608</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2705,15 @@
         <v>12606.7991</v>
       </c>
       <c r="G74" t="n">
-        <v>55431.45140039608</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2735,15 @@
         <v>9.8178</v>
       </c>
       <c r="G75" t="n">
-        <v>55441.26920039608</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2765,15 @@
         <v>653.5617999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>55441.26920039608</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2795,15 @@
         <v>7.8956</v>
       </c>
       <c r="G77" t="n">
-        <v>55449.16480039608</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2825,15 @@
         <v>9039.984</v>
       </c>
       <c r="G78" t="n">
-        <v>46409.18080039608</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2855,15 @@
         <v>645.7824000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>45763.39840039608</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2885,15 @@
         <v>158.9656</v>
       </c>
       <c r="G80" t="n">
-        <v>45604.43280039608</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2915,15 @@
         <v>8221.258099999999</v>
       </c>
       <c r="G81" t="n">
-        <v>37383.17470039608</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2945,15 @@
         <v>2225.1718</v>
       </c>
       <c r="G82" t="n">
-        <v>39608.34650039607</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2975,15 @@
         <v>136.7755</v>
       </c>
       <c r="G83" t="n">
-        <v>39471.57100039607</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3005,15 @@
         <v>28</v>
       </c>
       <c r="G84" t="n">
-        <v>39499.57100039607</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3035,15 @@
         <v>304.1284</v>
       </c>
       <c r="G85" t="n">
-        <v>39195.44260039607</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3065,15 @@
         <v>11.4962</v>
       </c>
       <c r="G86" t="n">
-        <v>39206.93880039607</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3095,15 @@
         <v>500</v>
       </c>
       <c r="G87" t="n">
-        <v>38706.93880039607</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3125,15 @@
         <v>7987.1308</v>
       </c>
       <c r="G88" t="n">
-        <v>30719.80800039607</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3155,15 @@
         <v>8685.0499</v>
       </c>
       <c r="G89" t="n">
-        <v>22034.75810039607</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3185,15 @@
         <v>1164</v>
       </c>
       <c r="G90" t="n">
-        <v>23198.75810039607</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3215,15 @@
         <v>399</v>
       </c>
       <c r="G91" t="n">
-        <v>23198.75810039607</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3245,15 @@
         <v>868</v>
       </c>
       <c r="G92" t="n">
-        <v>23198.75810039607</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3275,15 @@
         <v>159.9704</v>
       </c>
       <c r="G93" t="n">
-        <v>23358.72850039607</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3305,15 @@
         <v>46.6477</v>
       </c>
       <c r="G94" t="n">
-        <v>23405.37620039607</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3335,15 @@
         <v>13.7484</v>
       </c>
       <c r="G95" t="n">
-        <v>23405.37620039607</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3365,15 @@
         <v>100238.4591</v>
       </c>
       <c r="G96" t="n">
-        <v>-76833.08289960392</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3395,15 @@
         <v>230.3397</v>
       </c>
       <c r="G97" t="n">
-        <v>-76602.74319960392</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3425,15 @@
         <v>909.7015</v>
       </c>
       <c r="G98" t="n">
-        <v>-76602.74319960392</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3455,15 @@
         <v>2436.047</v>
       </c>
       <c r="G99" t="n">
-        <v>-79038.79019960393</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3485,15 @@
         <v>400</v>
       </c>
       <c r="G100" t="n">
-        <v>-78638.79019960393</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3515,15 @@
         <v>15333.9272</v>
       </c>
       <c r="G101" t="n">
-        <v>-78638.79019960393</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,24 +3545,15 @@
         <v>318.461</v>
       </c>
       <c r="G102" t="n">
-        <v>-78957.25119960392</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3787,24 +3575,15 @@
         <v>4756.0476</v>
       </c>
       <c r="G103" t="n">
-        <v>-74201.20359960392</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>64.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3826,24 +3605,15 @@
         <v>252.5968</v>
       </c>
       <c r="G104" t="n">
-        <v>-74453.80039960392</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>66.29000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3865,24 +3635,21 @@
         <v>2269.7953</v>
       </c>
       <c r="G105" t="n">
-        <v>-72184.00509960392</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
         <v>64.90000000000001</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3904,24 +3671,21 @@
         <v>19.13</v>
       </c>
       <c r="G106" t="n">
-        <v>-72184.00509960392</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
         <v>66.2</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3943,24 +3707,21 @@
         <v>497.715</v>
       </c>
       <c r="G107" t="n">
-        <v>-72681.72009960392</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
         <v>66.2</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3982,24 +3743,21 @@
         <v>7042.629</v>
       </c>
       <c r="G108" t="n">
-        <v>-65639.09109960392</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
         <v>65.89</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4021,24 +3779,21 @@
         <v>6960.212</v>
       </c>
       <c r="G109" t="n">
-        <v>-72599.30309960392</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
         <v>66.3</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4060,24 +3815,19 @@
         <v>11265.2197</v>
       </c>
       <c r="G110" t="n">
-        <v>-61334.08339960391</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4099,24 +3849,19 @@
         <v>8</v>
       </c>
       <c r="G111" t="n">
-        <v>-61326.08339960391</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>66.09</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4138,24 +3883,19 @@
         <v>6619.989</v>
       </c>
       <c r="G112" t="n">
-        <v>-67946.07239960392</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4177,24 +3917,19 @@
         <v>8</v>
       </c>
       <c r="G113" t="n">
-        <v>-67938.07239960392</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>66.29000000000001</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4216,24 +3951,19 @@
         <v>8753.156999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>-76691.22939960391</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4255,24 +3985,19 @@
         <v>8250.800999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>-84942.03039960391</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
